--- a/Code/Results/Cases/Case_1_184/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_184/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.60338285175038</v>
+        <v>16.02215377896317</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.252223977406779</v>
+        <v>3.960574696401489</v>
       </c>
       <c r="E2">
-        <v>5.847136138934821</v>
+        <v>8.962828263891319</v>
       </c>
       <c r="F2">
-        <v>37.08575728495985</v>
+        <v>49.9221668532283</v>
       </c>
       <c r="G2">
-        <v>2.138488805892713</v>
+        <v>3.764367853488253</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>22.50824470265485</v>
+        <v>33.36126275062082</v>
       </c>
       <c r="J2">
-        <v>5.682550219718165</v>
+        <v>9.007884358450323</v>
       </c>
       <c r="K2">
-        <v>17.16052298064111</v>
+        <v>18.83968362875145</v>
       </c>
       <c r="L2">
-        <v>9.647971490219334</v>
+        <v>13.75599988110503</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.82955256692539</v>
+        <v>23.78713699837153</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.0056908923522</v>
+        <v>15.94831283836602</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.143987246471827</v>
+        <v>3.938544846372974</v>
       </c>
       <c r="E3">
-        <v>5.743566241304991</v>
+        <v>8.940634362825559</v>
       </c>
       <c r="F3">
-        <v>36.35229854936892</v>
+        <v>49.90977056915472</v>
       </c>
       <c r="G3">
-        <v>2.147713499779163</v>
+        <v>3.767743117104273</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>22.50141442817204</v>
+        <v>33.42382773433575</v>
       </c>
       <c r="J3">
-        <v>5.667264079787989</v>
+        <v>9.005588623716003</v>
       </c>
       <c r="K3">
-        <v>16.22996369436664</v>
+        <v>18.68483624650251</v>
       </c>
       <c r="L3">
-        <v>9.342763222401871</v>
+        <v>13.74084287428061</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.02584690426914</v>
+        <v>23.84462511146799</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.63055715248915</v>
+        <v>15.90625816759909</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.076837651845161</v>
+        <v>3.924672697802881</v>
       </c>
       <c r="E4">
-        <v>5.67996179135514</v>
+        <v>8.926688415411974</v>
       </c>
       <c r="F4">
-        <v>35.92404226321099</v>
+        <v>49.91230821461373</v>
       </c>
       <c r="G4">
-        <v>2.153528939924559</v>
+        <v>3.769924619531288</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.51035156177561</v>
+        <v>33.46704985798072</v>
       </c>
       <c r="J4">
-        <v>5.658220877672049</v>
+        <v>9.004209262063267</v>
       </c>
       <c r="K4">
-        <v>15.64361941255361</v>
+        <v>18.59400664939239</v>
       </c>
       <c r="L4">
-        <v>9.157004073363167</v>
+        <v>13.73418770973137</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.15033731523637</v>
+        <v>23.88186005853999</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.47584163316927</v>
+        <v>15.88996043417543</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.049280172294737</v>
+        <v>3.918932649535146</v>
       </c>
       <c r="E5">
-        <v>5.654015488142519</v>
+        <v>8.920924845494586</v>
       </c>
       <c r="F5">
-        <v>35.75506225250161</v>
+        <v>49.91589418597442</v>
       </c>
       <c r="G5">
-        <v>2.155938545644562</v>
+        <v>3.770841125319543</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.51716643667837</v>
+        <v>33.48587069359929</v>
       </c>
       <c r="J5">
-        <v>5.654613105772559</v>
+        <v>9.003654674384707</v>
       </c>
       <c r="K5">
-        <v>15.40116573969418</v>
+        <v>18.55809688647252</v>
       </c>
       <c r="L5">
-        <v>9.081799560136931</v>
+        <v>13.73214442155381</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.20206446910341</v>
+        <v>23.89752141518379</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.45004636482906</v>
+        <v>15.88730532555008</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.04469208232257</v>
+        <v>3.917974259188505</v>
       </c>
       <c r="E6">
-        <v>5.649704838097571</v>
+        <v>8.919962938727638</v>
       </c>
       <c r="F6">
-        <v>35.72733705033463</v>
+        <v>49.91664372779439</v>
       </c>
       <c r="G6">
-        <v>2.156341107944124</v>
+        <v>3.770994975767217</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.51848597832774</v>
+        <v>33.48906876792431</v>
       </c>
       <c r="J6">
-        <v>5.654018470959943</v>
+        <v>9.003563036759338</v>
       </c>
       <c r="K6">
-        <v>15.36070276499578</v>
+        <v>18.55220178864648</v>
       </c>
       <c r="L6">
-        <v>9.069344225864972</v>
+        <v>13.73184557728028</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.21071390366043</v>
+        <v>23.9001514560998</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.62847778420779</v>
+        <v>15.90603495220403</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.076466808759963</v>
+        <v>3.924595638011091</v>
       </c>
       <c r="E7">
-        <v>5.679612009650793</v>
+        <v>8.926611012156391</v>
       </c>
       <c r="F7">
-        <v>35.92174094577354</v>
+        <v>49.91234624528984</v>
       </c>
       <c r="G7">
-        <v>2.153561273542821</v>
+        <v>3.769936868269156</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.51043079018243</v>
+        <v>33.46729879519059</v>
       </c>
       <c r="J7">
-        <v>5.658171919619996</v>
+        <v>9.004201752383182</v>
       </c>
       <c r="K7">
-        <v>15.64036344896728</v>
+        <v>18.59351784164237</v>
       </c>
       <c r="L7">
-        <v>9.155987727529769</v>
+        <v>13.7341574431351</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.15103089160672</v>
+        <v>23.88206929699705</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.39910191332255</v>
+        <v>15.99602062759356</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.215034693808586</v>
+        <v>3.953050499654995</v>
       </c>
       <c r="E8">
-        <v>5.811412597768303</v>
+        <v>8.955241780701691</v>
       </c>
       <c r="F8">
-        <v>36.82826778606901</v>
+        <v>49.91578645283391</v>
       </c>
       <c r="G8">
-        <v>2.14163909834182</v>
+        <v>3.765509064290702</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22.50308551406763</v>
+        <v>33.38183672283581</v>
       </c>
       <c r="J8">
-        <v>5.677202981491961</v>
+        <v>9.007086461435881</v>
       </c>
       <c r="K8">
-        <v>16.84290888358296</v>
+        <v>18.78543296775857</v>
       </c>
       <c r="L8">
-        <v>9.542442178313545</v>
+        <v>13.75022482453754</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.89641108344136</v>
+        <v>23.80655731570936</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.83835170136784</v>
+        <v>16.19786995537265</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.482355115981082</v>
+        <v>4.006112988537727</v>
       </c>
       <c r="E9">
-        <v>6.070997005983034</v>
+        <v>9.008872788648342</v>
       </c>
       <c r="F9">
-        <v>38.78186918364839</v>
+        <v>50.00301923336342</v>
       </c>
       <c r="G9">
-        <v>2.119379055363528</v>
+        <v>3.7576871836854</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>22.59886075608777</v>
+        <v>33.25244287349561</v>
       </c>
       <c r="J9">
-        <v>5.717675391923917</v>
+        <v>9.012987497898164</v>
       </c>
       <c r="K9">
-        <v>19.07397844768627</v>
+        <v>19.19379858420195</v>
       </c>
       <c r="L9">
-        <v>10.31010514925428</v>
+        <v>13.80266262658217</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.42867139469433</v>
+        <v>23.67381387469858</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.84435392752257</v>
+        <v>16.36068244613568</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.677881806483145</v>
+        <v>4.043439362346437</v>
       </c>
       <c r="E10">
-        <v>6.264341188545535</v>
+        <v>9.046766756148061</v>
       </c>
       <c r="F10">
-        <v>40.32564803473753</v>
+        <v>50.11604686446381</v>
       </c>
       <c r="G10">
-        <v>2.103581919676566</v>
+        <v>3.752459136163049</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>22.74498220103797</v>
+        <v>33.1807372519142</v>
       </c>
       <c r="J10">
-        <v>5.750007485462367</v>
+        <v>9.017478198353592</v>
       </c>
       <c r="K10">
-        <v>20.71354916895082</v>
+        <v>19.51097491453263</v>
       </c>
       <c r="L10">
-        <v>10.87655054866661</v>
+        <v>13.85377980071124</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.10457357002177</v>
+        <v>23.58558791647628</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.28982676745229</v>
+        <v>16.43767746726408</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.767138734552188</v>
+        <v>4.060062142409282</v>
       </c>
       <c r="E11">
-        <v>6.35337763793978</v>
+        <v>9.063683210371044</v>
       </c>
       <c r="F11">
-        <v>41.05198782421311</v>
+        <v>50.17803592002584</v>
       </c>
       <c r="G11">
-        <v>2.096485499675393</v>
+        <v>3.750192064617766</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>22.82987526120537</v>
+        <v>33.1532029897752</v>
       </c>
       <c r="J11">
-        <v>5.765452562612582</v>
+        <v>9.019556243840693</v>
       </c>
       <c r="K11">
-        <v>21.51077712876383</v>
+        <v>19.65845820296797</v>
       </c>
       <c r="L11">
-        <v>11.13425574090825</v>
+        <v>13.87972360468021</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.96150726070158</v>
+        <v>23.5474611989704</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.45671554397331</v>
+        <v>16.46723482387681</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.801031590445514</v>
+        <v>4.066305500123091</v>
       </c>
       <c r="E12">
-        <v>6.387298383323648</v>
+        <v>9.07004311165421</v>
       </c>
       <c r="F12">
-        <v>41.33055681725825</v>
+        <v>50.20302240210576</v>
       </c>
       <c r="G12">
-        <v>2.093808321976878</v>
+        <v>3.749349471718253</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>22.86484294716222</v>
+        <v>33.14350864384018</v>
       </c>
       <c r="J12">
-        <v>5.771423653098822</v>
+        <v>9.0203483127959</v>
       </c>
       <c r="K12">
-        <v>21.80784865057838</v>
+        <v>19.71472015123889</v>
       </c>
       <c r="L12">
-        <v>11.23181982810651</v>
+        <v>13.88993017794492</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14.90797668310072</v>
+        <v>23.53331163171149</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.42085380234175</v>
+        <v>16.4608516155071</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.793727164844966</v>
+        <v>4.064963163686399</v>
       </c>
       <c r="E13">
-        <v>6.37998299563005</v>
+        <v>9.068675434461799</v>
       </c>
       <c r="F13">
-        <v>41.27040421151577</v>
+        <v>50.19757398229216</v>
       </c>
       <c r="G13">
-        <v>2.094384499846815</v>
+        <v>3.749530233564832</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>22.85718375919934</v>
+        <v>33.14556391054338</v>
       </c>
       <c r="J13">
-        <v>5.770131946377945</v>
+        <v>9.020177495627427</v>
       </c>
       <c r="K13">
-        <v>21.74408077079639</v>
+        <v>19.70258550379538</v>
       </c>
       <c r="L13">
-        <v>11.21080896791314</v>
+        <v>13.8877150891005</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.91947640678851</v>
+        <v>23.53634618465538</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.30359314426152</v>
+        <v>16.44010125128717</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.769924949577141</v>
+        <v>4.0605768157221</v>
       </c>
       <c r="E14">
-        <v>6.356163914478071</v>
+        <v>9.064207363523865</v>
       </c>
       <c r="F14">
-        <v>41.07483488165244</v>
+        <v>50.18006130808755</v>
       </c>
       <c r="G14">
-        <v>2.096265061826212</v>
+        <v>3.750122425898597</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>22.83269453181649</v>
+        <v>33.15239074840684</v>
       </c>
       <c r="J14">
-        <v>5.765941254102889</v>
+        <v>9.019621303898324</v>
       </c>
       <c r="K14">
-        <v>21.53531306358965</v>
+        <v>19.66307889467141</v>
       </c>
       <c r="L14">
-        <v>11.14228296714478</v>
+        <v>13.88055567354239</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.95709021195789</v>
+        <v>23.54629133260329</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.23153174702838</v>
+        <v>16.42744265992489</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.755359101093788</v>
+        <v>4.057883367409589</v>
       </c>
       <c r="E15">
-        <v>6.341602244283316</v>
+        <v>9.06146455930466</v>
       </c>
       <c r="F15">
-        <v>40.95550363643696</v>
+        <v>50.16953101734109</v>
       </c>
       <c r="G15">
-        <v>2.097418184488166</v>
+        <v>3.75048722846693</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>22.81806673146081</v>
+        <v>33.15666777800355</v>
       </c>
       <c r="J15">
-        <v>5.763390791926104</v>
+        <v>9.019281295021807</v>
       </c>
       <c r="K15">
-        <v>21.40681380179065</v>
+        <v>19.63893237664659</v>
       </c>
       <c r="L15">
-        <v>11.10030522467224</v>
+        <v>13.87621995553203</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.98021442709721</v>
+        <v>23.55242053926128</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.81499139387485</v>
+        <v>16.35570788467276</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.672058899805459</v>
+        <v>4.042345840196975</v>
       </c>
       <c r="E16">
-        <v>6.258548266959647</v>
+        <v>9.045654775602092</v>
       </c>
       <c r="F16">
-        <v>40.27866875434648</v>
+        <v>50.11220784938597</v>
       </c>
       <c r="G16">
-        <v>2.104047258789561</v>
+        <v>3.752609524275441</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>22.7398193931339</v>
+        <v>33.18263909751992</v>
       </c>
       <c r="J16">
-        <v>5.749014300340945</v>
+        <v>9.017343109769467</v>
       </c>
       <c r="K16">
-        <v>20.66076497720794</v>
+        <v>19.5013969136884</v>
       </c>
       <c r="L16">
-        <v>10.85970679929888</v>
+        <v>13.8521380609471</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.11401255598881</v>
+        <v>23.58811994306684</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.55629674369914</v>
+        <v>16.31243725571867</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.621068897513595</v>
+        <v>4.032722613997093</v>
       </c>
       <c r="E17">
-        <v>6.207907469110053</v>
+        <v>9.035873781801959</v>
       </c>
       <c r="F17">
-        <v>39.86965049616258</v>
+        <v>50.07974473087232</v>
       </c>
       <c r="G17">
-        <v>2.108135052401291</v>
+        <v>3.753939897989678</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>22.69665473343948</v>
+        <v>33.19987484417484</v>
       </c>
       <c r="J17">
-        <v>5.740394608590011</v>
+        <v>9.016163180437596</v>
       </c>
       <c r="K17">
-        <v>20.19433056439406</v>
+        <v>19.41780947478147</v>
       </c>
       <c r="L17">
-        <v>10.71209046685169</v>
+        <v>13.83805048781688</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.1972228874864</v>
+        <v>23.61053422231998</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.4063592209611</v>
+        <v>16.28782626499258</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.591766757156423</v>
+        <v>4.02715396809825</v>
       </c>
       <c r="E18">
-        <v>6.178878888223307</v>
+        <v>9.030217717101182</v>
       </c>
       <c r="F18">
-        <v>39.63665439680036</v>
+        <v>50.06206846601914</v>
       </c>
       <c r="G18">
-        <v>2.11049487868879</v>
+        <v>3.754715565266151</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>22.67355074540546</v>
+        <v>33.21026695640875</v>
       </c>
       <c r="J18">
-        <v>5.735505071971682</v>
+        <v>9.015487824014276</v>
       </c>
       <c r="K18">
-        <v>19.95173959854046</v>
+        <v>19.37003605676667</v>
       </c>
       <c r="L18">
-        <v>10.62718869526063</v>
+        <v>13.83020122223744</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.24549302901499</v>
+        <v>23.62361532782434</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.35539862043271</v>
+        <v>16.27954161506776</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.581848648455249</v>
+        <v>4.025262744849878</v>
       </c>
       <c r="E19">
-        <v>6.16906587423442</v>
+        <v>9.028297459235805</v>
       </c>
       <c r="F19">
-        <v>39.55815277100023</v>
+        <v>50.05625480276118</v>
       </c>
       <c r="G19">
-        <v>2.111295440004869</v>
+        <v>3.754979994167617</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>22.66601900554003</v>
+        <v>33.2138677068001</v>
       </c>
       <c r="J19">
-        <v>5.733860819016693</v>
+        <v>9.015259725126288</v>
       </c>
       <c r="K19">
-        <v>19.87301815299685</v>
+        <v>19.35391440019506</v>
       </c>
       <c r="L19">
-        <v>10.59844402721251</v>
+        <v>13.82758727512585</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.26190639300922</v>
+        <v>23.62807684312114</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.58395400909027</v>
+        <v>16.31701495198326</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.626493854188288</v>
+        <v>4.0337505021707</v>
       </c>
       <c r="E20">
-        <v>6.213287724238589</v>
+        <v>9.036918118776477</v>
       </c>
       <c r="F20">
-        <v>39.91295690431639</v>
+        <v>50.08309748940229</v>
       </c>
       <c r="G20">
-        <v>2.107699025616478</v>
+        <v>3.753797194344171</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>22.70107012783877</v>
+        <v>33.19799053175694</v>
       </c>
       <c r="J20">
-        <v>5.741305010165346</v>
+        <v>9.016288442882887</v>
       </c>
       <c r="K20">
-        <v>20.24432034541969</v>
+        <v>19.42667638780931</v>
       </c>
       <c r="L20">
-        <v>10.72780438375303</v>
+        <v>13.83952392662003</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.18832248619113</v>
+        <v>23.60812862662755</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.3380846561871</v>
+        <v>16.44618541901568</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.776913286424336</v>
+        <v>4.061866585235301</v>
       </c>
       <c r="E21">
-        <v>6.363154181383016</v>
+        <v>9.065520990390654</v>
       </c>
       <c r="F21">
-        <v>41.13218219676138</v>
+        <v>50.18516422289429</v>
       </c>
       <c r="G21">
-        <v>2.095712445541245</v>
+        <v>3.749948053917478</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>22.83980965175907</v>
+        <v>33.15036565881832</v>
       </c>
       <c r="J21">
-        <v>5.767168700041552</v>
+        <v>9.019784530130408</v>
       </c>
       <c r="K21">
-        <v>21.5967627345902</v>
+        <v>19.67467210289913</v>
       </c>
       <c r="L21">
-        <v>11.16241149031593</v>
+        <v>13.88264823332815</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.94602444114012</v>
+        <v>23.54336238407994</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.82044048450731</v>
+        <v>16.53293327018288</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.87579201349775</v>
+        <v>4.079942903573249</v>
       </c>
       <c r="E22">
-        <v>6.462320688788697</v>
+        <v>9.083946660120468</v>
       </c>
       <c r="F22">
-        <v>41.94958182490546</v>
+        <v>50.26068255415499</v>
       </c>
       <c r="G22">
-        <v>2.087935760210009</v>
+        <v>3.747525041091063</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>22.94701042895207</v>
+        <v>33.12350875814152</v>
       </c>
       <c r="J22">
-        <v>5.78479454340736</v>
+        <v>9.022099536416176</v>
       </c>
       <c r="K22">
-        <v>22.45264404622497</v>
+        <v>19.83913831325811</v>
       </c>
       <c r="L22">
-        <v>11.44631461907829</v>
+        <v>13.91305786358837</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>14.79144329913627</v>
+        <v>23.50271348807834</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.56397139464118</v>
+        <v>16.48642826224832</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.822948434497386</v>
+        <v>4.070322595913854</v>
       </c>
       <c r="E23">
-        <v>6.409264080111114</v>
+        <v>9.074136964645103</v>
       </c>
       <c r="F23">
-        <v>41.5114113984575</v>
+        <v>50.21957364034333</v>
       </c>
       <c r="G23">
-        <v>2.092082099039789</v>
+        <v>3.748809803756476</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>22.88822410940413</v>
+        <v>33.13745188310989</v>
       </c>
       <c r="J23">
-        <v>5.775315234822701</v>
+        <v>9.02086118691199</v>
       </c>
       <c r="K23">
-        <v>21.9983520557663</v>
+        <v>19.75115675151451</v>
       </c>
       <c r="L23">
-        <v>11.29480792023486</v>
+        <v>13.89662569269891</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>14.87359361572015</v>
+        <v>23.52425505057146</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.57145392560386</v>
+        <v>16.31494454580464</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.624041195318759</v>
+        <v>4.033285906478594</v>
       </c>
       <c r="E24">
-        <v>6.210855048216795</v>
+        <v>9.036446076372929</v>
       </c>
       <c r="F24">
-        <v>39.89337137219165</v>
+        <v>50.08157863159608</v>
       </c>
       <c r="G24">
-        <v>2.107896122904867</v>
+        <v>3.75386167695937</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>22.69906860855982</v>
+        <v>33.1988409247978</v>
       </c>
       <c r="J24">
-        <v>5.740893213128113</v>
+        <v>9.016231802400926</v>
       </c>
       <c r="K24">
-        <v>20.22173053008697</v>
+        <v>19.42266677412824</v>
       </c>
       <c r="L24">
-        <v>10.72070022924658</v>
+        <v>13.83885700627936</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.19234501511812</v>
+        <v>23.60921558947363</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.45759008308965</v>
+        <v>16.14064209716727</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.410340372389896</v>
+        <v>3.992050162721315</v>
       </c>
       <c r="E25">
-        <v>6.000466303461354</v>
+        <v>8.994630823440172</v>
       </c>
       <c r="F25">
-        <v>38.23442962588239</v>
+        <v>49.9708114386872</v>
       </c>
       <c r="G25">
-        <v>2.125293411335699</v>
+        <v>3.759711675315176</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>22.56028985832545</v>
+        <v>33.28335002245119</v>
       </c>
       <c r="J25">
-        <v>5.706323742757126</v>
+        <v>9.011364317879108</v>
       </c>
       <c r="K25">
-        <v>18.48497193192581</v>
+        <v>19.08013571988089</v>
       </c>
       <c r="L25">
-        <v>10.10178591834295</v>
+        <v>13.78625175135595</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.55180625226191</v>
+        <v>23.70808779723474</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_184/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_184/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.02215377896317</v>
+        <v>12.60338285175039</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.960574696401489</v>
+        <v>2.252223977406715</v>
       </c>
       <c r="E2">
-        <v>8.962828263891319</v>
+        <v>5.847136138934819</v>
       </c>
       <c r="F2">
-        <v>49.9221668532283</v>
+        <v>37.08575728496001</v>
       </c>
       <c r="G2">
-        <v>3.764367853488253</v>
+        <v>2.138488805892852</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>33.36126275062082</v>
+        <v>22.50824470265491</v>
       </c>
       <c r="J2">
-        <v>9.007884358450323</v>
+        <v>5.682550219718231</v>
       </c>
       <c r="K2">
-        <v>18.83968362875145</v>
+        <v>17.16052298064111</v>
       </c>
       <c r="L2">
-        <v>13.75599988110503</v>
+        <v>9.647971490219408</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>23.78713699837153</v>
+        <v>15.82955256692555</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.94831283836602</v>
+        <v>12.00569089235222</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.938544846372974</v>
+        <v>2.143987246471827</v>
       </c>
       <c r="E3">
-        <v>8.940634362825559</v>
+        <v>5.743566241304925</v>
       </c>
       <c r="F3">
-        <v>49.90977056915472</v>
+        <v>36.35229854936894</v>
       </c>
       <c r="G3">
-        <v>3.767743117104273</v>
+        <v>2.147713499779296</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33.42382773433575</v>
+        <v>22.50141442817208</v>
       </c>
       <c r="J3">
-        <v>9.005588623716003</v>
+        <v>5.667264079787921</v>
       </c>
       <c r="K3">
-        <v>18.68483624650251</v>
+        <v>16.22996369436666</v>
       </c>
       <c r="L3">
-        <v>13.74084287428061</v>
+        <v>9.342763222401855</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>23.84462511146799</v>
+        <v>16.02584690426913</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.90625816759909</v>
+        <v>11.63055715248911</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.924672697802881</v>
+        <v>2.076837651845042</v>
       </c>
       <c r="E4">
-        <v>8.926688415411974</v>
+        <v>5.679961791355137</v>
       </c>
       <c r="F4">
-        <v>49.91230821461373</v>
+        <v>35.92404226321089</v>
       </c>
       <c r="G4">
-        <v>3.769924619531288</v>
+        <v>2.153528939924695</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>33.46704985798072</v>
+        <v>22.51035156177555</v>
       </c>
       <c r="J4">
-        <v>9.004209262063267</v>
+        <v>5.658220877672047</v>
       </c>
       <c r="K4">
-        <v>18.59400664939239</v>
+        <v>15.64361941255358</v>
       </c>
       <c r="L4">
-        <v>13.73418770973137</v>
+        <v>9.157004073363124</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.88186005853999</v>
+        <v>16.15033731523637</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.88996043417543</v>
+        <v>11.47584163316929</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.918932649535146</v>
+        <v>2.049280172294869</v>
       </c>
       <c r="E5">
-        <v>8.920924845494586</v>
+        <v>5.654015488142647</v>
       </c>
       <c r="F5">
-        <v>49.91589418597442</v>
+        <v>35.7550622525016</v>
       </c>
       <c r="G5">
-        <v>3.770841125319543</v>
+        <v>2.155938545644427</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>33.48587069359929</v>
+        <v>22.51716643667839</v>
       </c>
       <c r="J5">
-        <v>9.003654674384707</v>
+        <v>5.654613105772524</v>
       </c>
       <c r="K5">
-        <v>18.55809688647252</v>
+        <v>15.40116573969414</v>
       </c>
       <c r="L5">
-        <v>13.73214442155381</v>
+        <v>9.081799560136895</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>23.89752141518379</v>
+        <v>16.20206446910342</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.88730532555008</v>
+        <v>11.45004636482904</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.917974259188505</v>
+        <v>2.044692082322582</v>
       </c>
       <c r="E6">
-        <v>8.919962938727638</v>
+        <v>5.649704838097636</v>
       </c>
       <c r="F6">
-        <v>49.91664372779439</v>
+        <v>35.72733705033462</v>
       </c>
       <c r="G6">
-        <v>3.770994975767217</v>
+        <v>2.156341107944259</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>33.48906876792431</v>
+        <v>22.51848597832771</v>
       </c>
       <c r="J6">
-        <v>9.003563036759338</v>
+        <v>5.654018470959976</v>
       </c>
       <c r="K6">
-        <v>18.55220178864648</v>
+        <v>15.36070276499577</v>
       </c>
       <c r="L6">
-        <v>13.73184557728028</v>
+        <v>9.069344225864992</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>23.9001514560998</v>
+        <v>16.21071390366043</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.90603495220403</v>
+        <v>11.62847778420786</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.924595638011091</v>
+        <v>2.076466808759888</v>
       </c>
       <c r="E7">
-        <v>8.926611012156391</v>
+        <v>5.67961200965079</v>
       </c>
       <c r="F7">
-        <v>49.91234624528984</v>
+        <v>35.92174094577374</v>
       </c>
       <c r="G7">
-        <v>3.769936868269156</v>
+        <v>2.153561273542556</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>33.46729879519059</v>
+        <v>22.51043079018259</v>
       </c>
       <c r="J7">
-        <v>9.004201752383182</v>
+        <v>5.658171919619996</v>
       </c>
       <c r="K7">
-        <v>18.59351784164237</v>
+        <v>15.64036344896734</v>
       </c>
       <c r="L7">
-        <v>13.7341574431351</v>
+        <v>9.1559877275298</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.88206929699705</v>
+        <v>16.15103089160678</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.99602062759356</v>
+        <v>12.39910191332254</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.953050499654995</v>
+        <v>2.215034693808583</v>
       </c>
       <c r="E8">
-        <v>8.955241780701691</v>
+        <v>5.8114125977683</v>
       </c>
       <c r="F8">
-        <v>49.91578645283391</v>
+        <v>36.82826778606918</v>
       </c>
       <c r="G8">
-        <v>3.765509064290702</v>
+        <v>2.14163909834182</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>33.38183672283581</v>
+        <v>22.50308551406778</v>
       </c>
       <c r="J8">
-        <v>9.007086461435881</v>
+        <v>5.677202981491993</v>
       </c>
       <c r="K8">
-        <v>18.78543296775857</v>
+        <v>16.84290888358298</v>
       </c>
       <c r="L8">
-        <v>13.75022482453754</v>
+        <v>9.542442178313602</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>23.80655731570936</v>
+        <v>15.89641108344149</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.19786995537265</v>
+        <v>13.83835170136784</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.006112988537727</v>
+        <v>2.482355115981156</v>
       </c>
       <c r="E9">
-        <v>9.008872788648342</v>
+        <v>6.070997005982965</v>
       </c>
       <c r="F9">
-        <v>50.00301923336342</v>
+        <v>38.78186918364826</v>
       </c>
       <c r="G9">
-        <v>3.7576871836854</v>
+        <v>2.119379055363527</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>33.25244287349561</v>
+        <v>22.59886075608765</v>
       </c>
       <c r="J9">
-        <v>9.012987497898164</v>
+        <v>5.717675391923815</v>
       </c>
       <c r="K9">
-        <v>19.19379858420195</v>
+        <v>19.07397844768625</v>
       </c>
       <c r="L9">
-        <v>13.80266262658217</v>
+        <v>10.31010514925424</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>23.67381387469858</v>
+        <v>15.42867139469425</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.36068244613568</v>
+        <v>14.84435392752255</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.043439362346437</v>
+        <v>2.677881806483154</v>
       </c>
       <c r="E10">
-        <v>9.046766756148061</v>
+        <v>6.264341188545537</v>
       </c>
       <c r="F10">
-        <v>50.11604686446381</v>
+        <v>40.32564803473754</v>
       </c>
       <c r="G10">
-        <v>3.752459136163049</v>
+        <v>2.103581919676168</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>33.1807372519142</v>
+        <v>22.74498220103799</v>
       </c>
       <c r="J10">
-        <v>9.017478198353592</v>
+        <v>5.750007485462367</v>
       </c>
       <c r="K10">
-        <v>19.51097491453263</v>
+        <v>20.71354916895084</v>
       </c>
       <c r="L10">
-        <v>13.85377980071124</v>
+        <v>10.8765505486666</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>23.58558791647628</v>
+        <v>15.10457357002181</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.43767746726408</v>
+        <v>15.28982676745231</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.060062142409282</v>
+        <v>2.767138734552064</v>
       </c>
       <c r="E11">
-        <v>9.063683210371044</v>
+        <v>6.353377637939644</v>
       </c>
       <c r="F11">
-        <v>50.17803592002584</v>
+        <v>41.05198782421305</v>
       </c>
       <c r="G11">
-        <v>3.750192064617766</v>
+        <v>2.096485499675131</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>33.1532029897752</v>
+        <v>22.82987526120534</v>
       </c>
       <c r="J11">
-        <v>9.019556243840693</v>
+        <v>5.765452562612547</v>
       </c>
       <c r="K11">
-        <v>19.65845820296797</v>
+        <v>21.51077712876386</v>
       </c>
       <c r="L11">
-        <v>13.87972360468021</v>
+        <v>11.13425574090823</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>23.5474611989704</v>
+        <v>14.96150726070156</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.46723482387681</v>
+        <v>15.45671554397331</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.066305500123091</v>
+        <v>2.801031590445511</v>
       </c>
       <c r="E12">
-        <v>9.07004311165421</v>
+        <v>6.387298383323585</v>
       </c>
       <c r="F12">
-        <v>50.20302240210576</v>
+        <v>41.33055681725821</v>
       </c>
       <c r="G12">
-        <v>3.749349471718253</v>
+        <v>2.093808321977009</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>33.14350864384018</v>
+        <v>22.86484294716218</v>
       </c>
       <c r="J12">
-        <v>9.0203483127959</v>
+        <v>5.77142365309879</v>
       </c>
       <c r="K12">
-        <v>19.71472015123889</v>
+        <v>21.80784865057836</v>
       </c>
       <c r="L12">
-        <v>13.88993017794492</v>
+        <v>11.23181982810648</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>23.53331163171149</v>
+        <v>14.9079766831007</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.4608516155071</v>
+        <v>15.42085380234176</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.064963163686399</v>
+        <v>2.793727164845089</v>
       </c>
       <c r="E13">
-        <v>9.068675434461799</v>
+        <v>6.379982995630311</v>
       </c>
       <c r="F13">
-        <v>50.19757398229216</v>
+        <v>41.27040421151572</v>
       </c>
       <c r="G13">
-        <v>3.749530233564832</v>
+        <v>2.094384499846818</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>33.14556391054338</v>
+        <v>22.85718375919929</v>
       </c>
       <c r="J13">
-        <v>9.020177495627427</v>
+        <v>5.770131946378147</v>
       </c>
       <c r="K13">
-        <v>19.70258550379538</v>
+        <v>21.74408077079647</v>
       </c>
       <c r="L13">
-        <v>13.8877150891005</v>
+        <v>11.21080896791315</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>23.53634618465538</v>
+        <v>14.91947640678846</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.44010125128717</v>
+        <v>15.30359314426155</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.0605768157221</v>
+        <v>2.769924949577195</v>
       </c>
       <c r="E14">
-        <v>9.064207363523865</v>
+        <v>6.356163914478199</v>
       </c>
       <c r="F14">
-        <v>50.18006130808755</v>
+        <v>41.07483488165254</v>
       </c>
       <c r="G14">
-        <v>3.750122425898597</v>
+        <v>2.096265061825951</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>33.15239074840684</v>
+        <v>22.83269453181656</v>
       </c>
       <c r="J14">
-        <v>9.019621303898324</v>
+        <v>5.765941254102959</v>
       </c>
       <c r="K14">
-        <v>19.66307889467141</v>
+        <v>21.53531306358963</v>
       </c>
       <c r="L14">
-        <v>13.88055567354239</v>
+        <v>11.14228296714482</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>23.54629133260329</v>
+        <v>14.95709021195789</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.42744265992489</v>
+        <v>15.23153174702841</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.057883367409589</v>
+        <v>2.755359101093739</v>
       </c>
       <c r="E15">
-        <v>9.06146455930466</v>
+        <v>6.341602244283311</v>
       </c>
       <c r="F15">
-        <v>50.16953101734109</v>
+        <v>40.95550363643689</v>
       </c>
       <c r="G15">
-        <v>3.75048722846693</v>
+        <v>2.097418184488293</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>33.15666777800355</v>
+        <v>22.81806673146077</v>
       </c>
       <c r="J15">
-        <v>9.019281295021807</v>
+        <v>5.763390791926102</v>
       </c>
       <c r="K15">
-        <v>19.63893237664659</v>
+        <v>21.40681380179068</v>
       </c>
       <c r="L15">
-        <v>13.87621995553203</v>
+        <v>11.1003052246722</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>23.55242053926128</v>
+        <v>14.98021442709716</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.35570788467276</v>
+        <v>14.81499139387483</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.042345840196975</v>
+        <v>2.672058899805407</v>
       </c>
       <c r="E16">
-        <v>9.045654775602092</v>
+        <v>6.258548266959648</v>
       </c>
       <c r="F16">
-        <v>50.11220784938597</v>
+        <v>40.27866875434643</v>
       </c>
       <c r="G16">
-        <v>3.752609524275441</v>
+        <v>2.10404725878996</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>33.18263909751992</v>
+        <v>22.73981939313382</v>
       </c>
       <c r="J16">
-        <v>9.017343109769467</v>
+        <v>5.749014300340911</v>
       </c>
       <c r="K16">
-        <v>19.5013969136884</v>
+        <v>20.66076497720803</v>
       </c>
       <c r="L16">
-        <v>13.8521380609471</v>
+        <v>10.85970679929885</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>23.58811994306684</v>
+        <v>15.1140125559888</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.31243725571867</v>
+        <v>14.55629674369916</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.032722613997093</v>
+        <v>2.621068897513537</v>
       </c>
       <c r="E17">
-        <v>9.035873781801959</v>
+        <v>6.207907469110053</v>
       </c>
       <c r="F17">
-        <v>50.07974473087232</v>
+        <v>39.86965049616254</v>
       </c>
       <c r="G17">
-        <v>3.753939897989678</v>
+        <v>2.108135052401289</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>33.19987484417484</v>
+        <v>22.69665473343946</v>
       </c>
       <c r="J17">
-        <v>9.016163180437596</v>
+        <v>5.740394608590011</v>
       </c>
       <c r="K17">
-        <v>19.41780947478147</v>
+        <v>20.19433056439405</v>
       </c>
       <c r="L17">
-        <v>13.83805048781688</v>
+        <v>10.71209046685167</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>23.61053422231998</v>
+        <v>15.19722288748637</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.28782626499258</v>
+        <v>14.40635922096105</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.02715396809825</v>
+        <v>2.591766757156549</v>
       </c>
       <c r="E18">
-        <v>9.030217717101182</v>
+        <v>6.178878888223243</v>
       </c>
       <c r="F18">
-        <v>50.06206846601914</v>
+        <v>39.63665439680032</v>
       </c>
       <c r="G18">
-        <v>3.754715565266151</v>
+        <v>2.110494878688919</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>33.21026695640875</v>
+        <v>22.67355074540536</v>
       </c>
       <c r="J18">
-        <v>9.015487824014276</v>
+        <v>5.735505071971581</v>
       </c>
       <c r="K18">
-        <v>19.37003605676667</v>
+        <v>19.95173959854046</v>
       </c>
       <c r="L18">
-        <v>13.83020122223744</v>
+        <v>10.62718869526063</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>23.62361532782434</v>
+        <v>15.24549302901493</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.27954161506776</v>
+        <v>14.35539862043273</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.025262744849878</v>
+        <v>2.581848648455186</v>
       </c>
       <c r="E19">
-        <v>9.028297459235805</v>
+        <v>6.16906587423449</v>
       </c>
       <c r="F19">
-        <v>50.05625480276118</v>
+        <v>39.5581527710001</v>
       </c>
       <c r="G19">
-        <v>3.754979994167617</v>
+        <v>2.111295440004866</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>33.2138677068001</v>
+        <v>22.66601900553992</v>
       </c>
       <c r="J19">
-        <v>9.015259725126288</v>
+        <v>5.733860819016759</v>
       </c>
       <c r="K19">
-        <v>19.35391440019506</v>
+        <v>19.87301815299686</v>
       </c>
       <c r="L19">
-        <v>13.82758727512585</v>
+        <v>10.59844402721251</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>23.62807684312114</v>
+        <v>15.26190639300914</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.31701495198326</v>
+        <v>14.58395400909026</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.0337505021707</v>
+        <v>2.626493854188165</v>
       </c>
       <c r="E20">
-        <v>9.036918118776477</v>
+        <v>6.213287724238593</v>
       </c>
       <c r="F20">
-        <v>50.08309748940229</v>
+        <v>39.91295690431635</v>
       </c>
       <c r="G20">
-        <v>3.753797194344171</v>
+        <v>2.107699025616478</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>33.19799053175694</v>
+        <v>22.70107012783877</v>
       </c>
       <c r="J20">
-        <v>9.016288442882887</v>
+        <v>5.741305010165382</v>
       </c>
       <c r="K20">
-        <v>19.42667638780931</v>
+        <v>20.2443203454197</v>
       </c>
       <c r="L20">
-        <v>13.83952392662003</v>
+        <v>10.72780438375302</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>23.60812862662755</v>
+        <v>15.18832248619116</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.44618541901568</v>
+        <v>15.33808465618711</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.061866585235301</v>
+        <v>2.776913286424395</v>
       </c>
       <c r="E21">
-        <v>9.065520990390654</v>
+        <v>6.363154181383081</v>
       </c>
       <c r="F21">
-        <v>50.18516422289429</v>
+        <v>41.13218219676138</v>
       </c>
       <c r="G21">
-        <v>3.749948053917478</v>
+        <v>2.095712445541245</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>33.15036565881832</v>
+        <v>22.8398096517591</v>
       </c>
       <c r="J21">
-        <v>9.019784530130408</v>
+        <v>5.767168700041551</v>
       </c>
       <c r="K21">
-        <v>19.67467210289913</v>
+        <v>21.5967627345902</v>
       </c>
       <c r="L21">
-        <v>13.88264823332815</v>
+        <v>11.16241149031591</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>23.54336238407994</v>
+        <v>14.94602444114012</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.53293327018288</v>
+        <v>15.82044048450735</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.079942903573249</v>
+        <v>2.875792013497743</v>
       </c>
       <c r="E22">
-        <v>9.083946660120468</v>
+        <v>6.462320688788759</v>
       </c>
       <c r="F22">
-        <v>50.26068255415499</v>
+        <v>41.94958182490547</v>
       </c>
       <c r="G22">
-        <v>3.747525041091063</v>
+        <v>2.087935760209874</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>33.12350875814152</v>
+        <v>22.94701042895213</v>
       </c>
       <c r="J22">
-        <v>9.022099536416176</v>
+        <v>5.784794543407392</v>
       </c>
       <c r="K22">
-        <v>19.83913831325811</v>
+        <v>22.45264404622495</v>
       </c>
       <c r="L22">
-        <v>13.91305786358837</v>
+        <v>11.44631461907828</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>23.50271348807834</v>
+        <v>14.79144329913629</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.48642826224832</v>
+        <v>15.56397139464119</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.070322595913854</v>
+        <v>2.822948434497428</v>
       </c>
       <c r="E23">
-        <v>9.074136964645103</v>
+        <v>6.409264080111175</v>
       </c>
       <c r="F23">
-        <v>50.21957364034333</v>
+        <v>41.51141139845752</v>
       </c>
       <c r="G23">
-        <v>3.748809803756476</v>
+        <v>2.092082099039915</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>33.13745188310989</v>
+        <v>22.88822410940416</v>
       </c>
       <c r="J23">
-        <v>9.02086118691199</v>
+        <v>5.775315234822701</v>
       </c>
       <c r="K23">
-        <v>19.75115675151451</v>
+        <v>21.99835205576628</v>
       </c>
       <c r="L23">
-        <v>13.89662569269891</v>
+        <v>11.29480792023485</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>23.52425505057146</v>
+        <v>14.87359361572013</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.31494454580464</v>
+        <v>14.57145392560384</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.033285906478594</v>
+        <v>2.624041195318633</v>
       </c>
       <c r="E24">
-        <v>9.036446076372929</v>
+        <v>6.210855048216598</v>
       </c>
       <c r="F24">
-        <v>50.08157863159608</v>
+        <v>39.89337137219165</v>
       </c>
       <c r="G24">
-        <v>3.75386167695937</v>
+        <v>2.107896122905001</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>33.1988409247978</v>
+        <v>22.69906860855976</v>
       </c>
       <c r="J24">
-        <v>9.016231802400926</v>
+        <v>5.740893213128079</v>
       </c>
       <c r="K24">
-        <v>19.42266677412824</v>
+        <v>20.22173053008696</v>
       </c>
       <c r="L24">
-        <v>13.83885700627936</v>
+        <v>10.72070022924658</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>23.60921558947363</v>
+        <v>15.19234501511812</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.14064209716727</v>
+        <v>13.45759008308963</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.992050162721315</v>
+        <v>2.410340372389828</v>
       </c>
       <c r="E25">
-        <v>8.994630823440172</v>
+        <v>6.000466303461356</v>
       </c>
       <c r="F25">
-        <v>49.9708114386872</v>
+        <v>38.23442962588232</v>
       </c>
       <c r="G25">
-        <v>3.759711675315176</v>
+        <v>2.125293411335569</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>33.28335002245119</v>
+        <v>22.56028985832536</v>
       </c>
       <c r="J25">
-        <v>9.011364317879108</v>
+        <v>5.706323742757127</v>
       </c>
       <c r="K25">
-        <v>19.08013571988089</v>
+        <v>18.48497193192579</v>
       </c>
       <c r="L25">
-        <v>13.78625175135595</v>
+        <v>10.10178591834293</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>23.70808779723474</v>
+        <v>15.55180625226181</v>
       </c>
       <c r="O25">
         <v>0</v>
